--- a/02575_stations.xlsx
+++ b/02575_stations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>station_id</t>
   </si>
@@ -58,6 +58,45 @@
     <t>06201</t>
   </si>
   <si>
+    <t>06260</t>
+  </si>
+  <si>
+    <t>00789</t>
+  </si>
+  <si>
+    <t>05149</t>
+  </si>
+  <si>
+    <t>02787</t>
+  </si>
+  <si>
+    <t>00801</t>
+  </si>
+  <si>
+    <t>01197</t>
+  </si>
+  <si>
+    <t>02880</t>
+  </si>
+  <si>
+    <t>05705</t>
+  </si>
+  <si>
+    <t>00985</t>
+  </si>
+  <si>
+    <t>07369</t>
+  </si>
+  <si>
+    <t>00020</t>
+  </si>
+  <si>
+    <t>00130</t>
+  </si>
+  <si>
+    <t>02600</t>
+  </si>
+  <si>
     <t>2006-08-07 00:00:00</t>
   </si>
   <si>
@@ -73,6 +112,30 @@
     <t>2003-12-31 00:00:00</t>
   </si>
   <si>
+    <t>2004-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>2005-07-04 00:00:00</t>
+  </si>
+  <si>
+    <t>2006-06-07 00:00:00</t>
+  </si>
+  <si>
+    <t>2005-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>2007-10-31 00:00:00</t>
+  </si>
+  <si>
+    <t>2004-08-12 00:00:00</t>
+  </si>
+  <si>
+    <t>2004-09-14 00:00:00</t>
+  </si>
+  <si>
+    <t>2004-11-02 00:00:00</t>
+  </si>
+  <si>
     <t>2021-03-21 00:00:00</t>
   </si>
   <si>
@@ -95,6 +158,45 @@
   </si>
   <si>
     <t>Simmershofen-Adelhofen</t>
+  </si>
+  <si>
+    <t>Ingelfingen-Stachenhausen</t>
+  </si>
+  <si>
+    <t>Bütthard</t>
+  </si>
+  <si>
+    <t>Gollhofen</t>
+  </si>
+  <si>
+    <t>Kupferzell-Rechbach</t>
+  </si>
+  <si>
+    <t>Burgbernheim</t>
+  </si>
+  <si>
+    <t>Ellwangen-Rindelbach</t>
+  </si>
+  <si>
+    <t>Lauda-Königshofen-Heckfeld</t>
+  </si>
+  <si>
+    <t>Würzburg</t>
+  </si>
+  <si>
+    <t>Dinkelsbühl-Oberwinstetten</t>
+  </si>
+  <si>
+    <t>Feuchtwangen-Heilbronn</t>
+  </si>
+  <si>
+    <t>Abtsgmünd-Untergröningen</t>
+  </si>
+  <si>
+    <t>Altertheim-Oberaltertheim</t>
+  </si>
+  <si>
+    <t>Kitzingen</t>
   </si>
   <si>
     <t>Baden-Württemberg</t>
@@ -458,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,10 +603,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>432</v>
@@ -516,10 +618,10 @@
         <v>9.98</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="J2">
         <v>18.33392525063222</v>
@@ -533,10 +635,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>415</v>
@@ -548,10 +650,10 @@
         <v>10.1732</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J3">
         <v>21.98871394505468</v>
@@ -565,10 +667,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>396</v>
@@ -580,10 +682,10 @@
         <v>9.898300000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="J4">
         <v>26.77178572958077</v>
@@ -597,10 +699,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>250</v>
@@ -612,10 +714,10 @@
         <v>9.7622</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="J5">
         <v>28.26681285265546</v>
@@ -629,10 +731,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>339</v>
@@ -644,13 +746,429 @@
         <v>10.1546</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J6">
         <v>28.58167337767201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>385</v>
+      </c>
+      <c r="F7">
+        <v>49.3328</v>
+      </c>
+      <c r="G7">
+        <v>9.704000000000001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7">
+        <v>30.65895263770536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>263</v>
+      </c>
+      <c r="F8">
+        <v>49.6063</v>
+      </c>
+      <c r="G8">
+        <v>9.8834</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8">
+        <v>30.92641008730602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>306</v>
+      </c>
+      <c r="F9">
+        <v>49.5741</v>
+      </c>
+      <c r="G9">
+        <v>10.1915</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9">
+        <v>34.68997225958837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>354</v>
+      </c>
+      <c r="F10">
+        <v>49.2428</v>
+      </c>
+      <c r="G10">
+        <v>9.678599999999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10">
+        <v>35.33949989150194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>331</v>
+      </c>
+      <c r="F11">
+        <v>49.4549</v>
+      </c>
+      <c r="G11">
+        <v>10.324</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11">
+        <v>40.20556044643113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>460</v>
+      </c>
+      <c r="F12">
+        <v>48.9895</v>
+      </c>
+      <c r="G12">
+        <v>10.1312</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12">
+        <v>43.00966090888868</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>324</v>
+      </c>
+      <c r="F13">
+        <v>49.5522</v>
+      </c>
+      <c r="G13">
+        <v>9.634499999999999</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13">
+        <v>44.72738902641089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>268</v>
+      </c>
+      <c r="F14">
+        <v>49.7704</v>
+      </c>
+      <c r="G14">
+        <v>9.957599999999999</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14">
+        <v>47.33352658918037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>492</v>
+      </c>
+      <c r="F15">
+        <v>49.0504</v>
+      </c>
+      <c r="G15">
+        <v>10.2892</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15">
+        <v>47.55523388171857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>475</v>
+      </c>
+      <c r="F16">
+        <v>49.1623</v>
+      </c>
+      <c r="G16">
+        <v>10.3661</v>
+      </c>
+      <c r="H16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16">
+        <v>47.56591396002452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>432</v>
+      </c>
+      <c r="F17">
+        <v>48.922</v>
+      </c>
+      <c r="G17">
+        <v>9.9129</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17">
+        <v>47.64459710326677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>49.7283</v>
+      </c>
+      <c r="G18">
+        <v>9.7692</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18">
+        <v>48.58406249099829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>193</v>
+      </c>
+      <c r="F19">
+        <v>49.7363</v>
+      </c>
+      <c r="G19">
+        <v>10.1781</v>
+      </c>
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19">
+        <v>48.769141065691</v>
       </c>
     </row>
   </sheetData>
